--- a/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGFELHASZNÁLÁS_Skipper.xlsx
+++ b/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGFELHASZNÁLÁS_Skipper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\Munka\!PROJEKTEK\ERASMUS\ERASMUS_GTK\SKIPPER_KA220-HED-000086240\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D510B0-7019-4E2B-BEAA-F43A0162514B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80E1FB7-63A9-4C29-80A1-489F13973A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="157">
   <si>
     <t>résztvevő</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>különbsége</t>
-  </si>
-  <si>
-    <t>okmány</t>
   </si>
   <si>
     <t>Kinevezés</t>
@@ -2548,11 +2545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y156"/>
+  <dimension ref="A1:X156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2578,35 +2575,35 @@
     <col min="24" max="24" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
+      <c r="U1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="171" t="s">
         <v>88</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="171" t="s">
-        <v>89</v>
       </c>
       <c r="B2" s="171"/>
       <c r="C2" s="171"/>
@@ -2631,14 +2628,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
       <c r="D3" s="80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="80" t="s">
         <v>24</v>
@@ -2652,10 +2649,10 @@
         <v>26</v>
       </c>
       <c r="J3" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="83" t="s">
         <v>62</v>
-      </c>
-      <c r="K3" s="83" t="s">
-        <v>63</v>
       </c>
       <c r="L3" s="83"/>
       <c r="M3" s="83"/>
@@ -2665,11 +2662,11 @@
         <v>27</v>
       </c>
       <c r="Q3" s="136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R3" s="128"/>
       <c r="S3" s="83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T3" s="83"/>
       <c r="U3" s="110"/>
@@ -2677,7 +2674,7 @@
       <c r="W3" s="152"/>
       <c r="X3" s="152"/>
     </row>
-    <row r="4" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
         <v>28</v>
       </c>
@@ -2688,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="77" t="s">
         <v>29</v>
@@ -2700,7 +2697,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="87" t="s">
         <v>31</v>
@@ -2718,7 +2715,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" s="89" t="s">
         <v>3</v>
@@ -2727,29 +2724,29 @@
         <v>33</v>
       </c>
       <c r="Q4" s="137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R4" s="129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S4" s="88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T4" s="88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U4" s="111"/>
       <c r="V4" s="153" t="s">
+        <v>81</v>
+      </c>
+      <c r="W4" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="W4" s="153" t="s">
+      <c r="X4" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="X4" s="153" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91" t="s">
         <v>34</v>
       </c>
@@ -2758,7 +2755,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="78" t="s">
         <v>36</v>
@@ -2768,7 +2765,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="138" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="93" t="s">
         <v>38</v>
@@ -2782,36 +2779,34 @@
         <v>40</v>
       </c>
       <c r="N5" s="93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O5" s="95"/>
       <c r="P5" s="96" t="s">
         <v>41</v>
       </c>
       <c r="Q5" s="138" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R5" s="130"/>
       <c r="S5" s="94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T5" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="U5" s="112" t="s">
-        <v>42</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="U5" s="112"/>
       <c r="V5" s="154" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W5" s="154" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X5" s="154" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
@@ -2848,21 +2843,21 @@
       <c r="T6" s="105"/>
       <c r="U6" s="22"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
@@ -2908,16 +2903,14 @@
       </c>
       <c r="R7" s="131"/>
       <c r="S7" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T7" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="U7" s="22">
-        <v>4</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="U7" s="22"/>
       <c r="V7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -2926,21 +2919,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>11</v>
@@ -2986,14 +2979,12 @@
       </c>
       <c r="R8" s="131"/>
       <c r="S8" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T8" s="167" t="s">
-        <v>136</v>
-      </c>
-      <c r="U8" s="22">
-        <v>2</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="U8" s="22"/>
       <c r="V8" t="str">
         <f>IF(VLOOKUP($T8,'Havi béradatok'!$B:$E,2,FALSE)=E8,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -3007,21 +2998,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>11</v>
@@ -3067,14 +3058,12 @@
       </c>
       <c r="R9" s="131"/>
       <c r="S9" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T9" s="105">
         <v>8396640823</v>
       </c>
-      <c r="U9" s="22">
-        <v>3</v>
-      </c>
+      <c r="U9" s="22"/>
       <c r="V9" t="str">
         <f>IF(VLOOKUP(LEFT($T9,10),'Havi béradatok'!$B:$E,2,FALSE)=E9,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -3088,21 +3077,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
@@ -3148,28 +3137,28 @@
       </c>
       <c r="R10" s="131"/>
       <c r="S10" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T10" s="105">
         <v>8396640823</v>
       </c>
       <c r="U10" s="22"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
@@ -3222,21 +3211,21 @@
       </c>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
@@ -3289,21 +3278,21 @@
       </c>
       <c r="U12" s="22"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>11</v>
@@ -3349,16 +3338,14 @@
       </c>
       <c r="R13" s="131"/>
       <c r="S13" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T13" s="167" t="s">
-        <v>138</v>
-      </c>
-      <c r="U13" s="22">
-        <v>4</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="U13" s="22"/>
       <c r="V13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -3367,21 +3354,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
@@ -3427,14 +3414,12 @@
       </c>
       <c r="R14" s="131"/>
       <c r="S14" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T14" s="167" t="s">
-        <v>138</v>
-      </c>
-      <c r="U14" s="22">
-        <v>2</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="U14" s="22"/>
       <c r="V14" t="str">
         <f>IF(VLOOKUP($T14,'Havi béradatok'!$B:$E,2,FALSE)=E14,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -3448,21 +3433,21 @@
         <v>-14950</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>11</v>
@@ -3510,14 +3495,12 @@
         <v>44980</v>
       </c>
       <c r="S15" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T15" s="105">
         <v>8398703792</v>
       </c>
-      <c r="U15" s="22">
-        <v>3</v>
-      </c>
+      <c r="U15" s="22"/>
       <c r="V15" t="str">
         <f>IF(VLOOKUP(LEFT($T15,10),'Havi béradatok'!$B:$E,2,FALSE)=E15,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -3531,21 +3514,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>15</v>
@@ -3593,7 +3576,7 @@
         <v>44980</v>
       </c>
       <c r="S16" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T16" s="105">
         <v>8398703792</v>
@@ -3602,19 +3585,19 @@
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
@@ -3669,19 +3652,19 @@
     </row>
     <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>15</v>
@@ -3736,19 +3719,19 @@
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>11</v>
@@ -3794,16 +3777,14 @@
       </c>
       <c r="R19" s="131"/>
       <c r="S19" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T19" s="167" t="s">
-        <v>132</v>
-      </c>
-      <c r="U19" s="22">
-        <v>4</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="U19" s="22"/>
       <c r="V19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -3814,19 +3795,19 @@
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>11</v>
@@ -3872,14 +3853,12 @@
       </c>
       <c r="R20" s="131"/>
       <c r="S20" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T20" s="167" t="s">
-        <v>132</v>
-      </c>
-      <c r="U20" s="22">
-        <v>2</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="U20" s="22"/>
       <c r="V20" t="str">
         <f>IF(VLOOKUP($T20,'Havi béradatok'!$B:$E,2,FALSE)=E20,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -3895,19 +3874,19 @@
     </row>
     <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>11</v>
@@ -3955,14 +3934,12 @@
         <v>44991</v>
       </c>
       <c r="S21" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T21" s="105">
         <v>8426803148</v>
       </c>
-      <c r="U21" s="22">
-        <v>3</v>
-      </c>
+      <c r="U21" s="22"/>
       <c r="V21" t="str">
         <f>IF(VLOOKUP(LEFT($T21,10),'Havi béradatok'!$B:$E,2,FALSE)=E21,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -3978,19 +3955,19 @@
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>15</v>
@@ -4038,7 +4015,7 @@
         <v>44991</v>
       </c>
       <c r="S22" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T22" s="105">
         <v>8426803148</v>
@@ -4047,19 +4024,19 @@
     </row>
     <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>15</v>
@@ -4107,7 +4084,7 @@
         <v>44991</v>
       </c>
       <c r="S23" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T23" s="105">
         <v>8426803148</v>
@@ -4116,19 +4093,19 @@
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
@@ -4176,7 +4153,7 @@
         <v>44991</v>
       </c>
       <c r="S24" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T24" s="105">
         <v>8426803148</v>
@@ -4185,19 +4162,19 @@
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>15</v>
@@ -4245,7 +4222,7 @@
         <v>44991</v>
       </c>
       <c r="S25" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T25" s="105">
         <v>8426803148</v>
@@ -4254,19 +4231,19 @@
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>15</v>
@@ -4314,7 +4291,7 @@
         <v>44991</v>
       </c>
       <c r="S26" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T26" s="105">
         <v>8426803148</v>
@@ -4323,19 +4300,19 @@
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>11</v>
@@ -4381,16 +4358,14 @@
       </c>
       <c r="R27" s="131"/>
       <c r="S27" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T27" s="167" t="s">
-        <v>145</v>
-      </c>
-      <c r="U27" s="22">
-        <v>4</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="U27" s="22"/>
       <c r="V27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -4401,19 +4376,19 @@
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>11</v>
@@ -4459,14 +4434,12 @@
       </c>
       <c r="R28" s="131"/>
       <c r="S28" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T28" s="167" t="s">
-        <v>145</v>
-      </c>
-      <c r="U28" s="22">
-        <v>2</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="U28" s="22"/>
       <c r="V28" t="str">
         <f>IF(VLOOKUP($T28,'Havi béradatok'!$B:$E,2,FALSE)=E28,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -4482,19 +4455,19 @@
     </row>
     <row r="29" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>11</v>
@@ -4540,14 +4513,12 @@
       </c>
       <c r="R29" s="131"/>
       <c r="S29" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T29" s="105">
         <v>8431812710</v>
       </c>
-      <c r="U29" s="22">
-        <v>3</v>
-      </c>
+      <c r="U29" s="22"/>
       <c r="V29" t="str">
         <f>IF(VLOOKUP(LEFT($T29,10),'Havi béradatok'!$B:$E,2,FALSE)=E29,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -4563,19 +4534,19 @@
     </row>
     <row r="30" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
@@ -4621,7 +4592,7 @@
       </c>
       <c r="R30" s="131"/>
       <c r="S30" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T30" s="105">
         <v>8431812710</v>
@@ -4630,19 +4601,19 @@
     </row>
     <row r="31" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>15</v>
@@ -4688,7 +4659,7 @@
       </c>
       <c r="R31" s="131"/>
       <c r="S31" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T31" s="105">
         <v>8431812710</v>
@@ -4697,19 +4668,19 @@
     </row>
     <row r="32" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>15</v>
@@ -4755,7 +4726,7 @@
       </c>
       <c r="R32" s="131"/>
       <c r="S32" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T32" s="105">
         <v>8431812710</v>
@@ -4764,19 +4735,19 @@
     </row>
     <row r="33" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>11</v>
@@ -4822,16 +4793,14 @@
       </c>
       <c r="R33" s="131"/>
       <c r="S33" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T33" s="167" t="s">
-        <v>140</v>
-      </c>
-      <c r="U33" s="22">
-        <v>4</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="U33" s="22"/>
       <c r="V33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W33" s="168">
         <v>1</v>
@@ -4842,19 +4811,19 @@
     </row>
     <row r="34" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>11</v>
@@ -4902,14 +4871,12 @@
         <v>44960</v>
       </c>
       <c r="S34" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T34" s="167" t="s">
-        <v>140</v>
-      </c>
-      <c r="U34" s="22">
-        <v>2</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="U34" s="22"/>
       <c r="V34" t="str">
         <f>IF(VLOOKUP($T34,'Havi béradatok'!$B:$E,2,FALSE)=E34,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -4925,19 +4892,19 @@
     </row>
     <row r="35" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>11</v>
@@ -4985,14 +4952,12 @@
         <v>44978</v>
       </c>
       <c r="S35" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T35" s="167" t="s">
-        <v>140</v>
-      </c>
-      <c r="U35" s="22">
-        <v>3</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="U35" s="22"/>
       <c r="V35" t="str">
         <f>IF(VLOOKUP(LEFT($T35,10),'Havi béradatok'!$B:$E,2,FALSE)=E35,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -5008,19 +4973,19 @@
     </row>
     <row r="36" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>15</v>
@@ -5068,28 +5033,28 @@
         <v>44978</v>
       </c>
       <c r="S36" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T36" s="167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U36" s="113"/>
     </row>
     <row r="37" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
@@ -5138,25 +5103,25 @@
       </c>
       <c r="S37" s="105"/>
       <c r="T37" s="167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U37" s="113"/>
     </row>
     <row r="38" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>15</v>
@@ -5205,25 +5170,25 @@
       </c>
       <c r="S38" s="105"/>
       <c r="T38" s="167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U38" s="113"/>
     </row>
     <row r="39" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>11</v>
@@ -5269,16 +5234,14 @@
       </c>
       <c r="R39" s="131"/>
       <c r="S39" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T39" s="167" t="s">
-        <v>146</v>
-      </c>
-      <c r="U39" s="22">
-        <v>4</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="U39" s="22"/>
       <c r="V39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -5289,19 +5252,19 @@
     </row>
     <row r="40" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>11</v>
@@ -5347,14 +5310,12 @@
       </c>
       <c r="R40" s="131"/>
       <c r="S40" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T40" s="167" t="s">
-        <v>146</v>
-      </c>
-      <c r="U40" s="22">
-        <v>2</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="U40" s="22"/>
       <c r="V40" t="str">
         <f>IF(VLOOKUP($T40,'Havi béradatok'!$B:$E,2,FALSE)=E40,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -5370,19 +5331,19 @@
     </row>
     <row r="41" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>11</v>
@@ -5428,14 +5389,12 @@
       </c>
       <c r="R41" s="131"/>
       <c r="S41" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T41" s="105">
         <v>8403794029</v>
       </c>
-      <c r="U41" s="22">
-        <v>3</v>
-      </c>
+      <c r="U41" s="22"/>
       <c r="V41" t="str">
         <f>IF(VLOOKUP(LEFT($T41,10),'Havi béradatok'!$B:$E,2,FALSE)=E41,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -5451,19 +5410,19 @@
     </row>
     <row r="42" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>15</v>
@@ -5509,7 +5468,7 @@
       </c>
       <c r="R42" s="131"/>
       <c r="S42" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T42" s="105">
         <v>8403794029</v>
@@ -5518,19 +5477,19 @@
     </row>
     <row r="43" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>15</v>
@@ -5585,19 +5544,19 @@
     </row>
     <row r="44" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>15</v>
@@ -5652,19 +5611,19 @@
     </row>
     <row r="45" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>15</v>
@@ -5719,19 +5678,19 @@
     </row>
     <row r="46" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>15</v>
@@ -5786,19 +5745,19 @@
     </row>
     <row r="47" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>15</v>
@@ -5853,19 +5812,19 @@
     </row>
     <row r="48" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>15</v>
@@ -5920,19 +5879,19 @@
     </row>
     <row r="49" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>11</v>
@@ -5978,16 +5937,14 @@
       </c>
       <c r="R49" s="131"/>
       <c r="S49" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T49" s="167" t="s">
-        <v>146</v>
-      </c>
-      <c r="U49" s="22">
-        <v>4</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="U49" s="22"/>
       <c r="V49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W49">
         <v>0</v>
@@ -5998,19 +5955,19 @@
     </row>
     <row r="50" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>11</v>
@@ -6056,14 +6013,12 @@
       </c>
       <c r="R50" s="131"/>
       <c r="S50" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T50" s="167" t="s">
-        <v>146</v>
-      </c>
-      <c r="U50" s="22">
-        <v>2</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="U50" s="22"/>
       <c r="V50" t="str">
         <f>IF(VLOOKUP($T50,'Havi béradatok'!$B:$E,2,FALSE)=E50,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -6079,19 +6034,19 @@
     </row>
     <row r="51" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>11</v>
@@ -6137,14 +6092,12 @@
       </c>
       <c r="R51" s="131"/>
       <c r="S51" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T51" s="105">
         <v>8403794029</v>
       </c>
-      <c r="U51" s="22">
-        <v>3</v>
-      </c>
+      <c r="U51" s="22"/>
       <c r="V51" t="str">
         <f>IF(VLOOKUP(LEFT($T51,10),'Havi béradatok'!$B:$E,2,FALSE)=E51,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -6160,19 +6113,19 @@
     </row>
     <row r="52" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>15</v>
@@ -6218,7 +6171,7 @@
       </c>
       <c r="R52" s="131"/>
       <c r="S52" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T52" s="105">
         <v>8403794029</v>
@@ -6227,19 +6180,19 @@
     </row>
     <row r="53" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>15</v>
@@ -6294,19 +6247,19 @@
     </row>
     <row r="54" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
@@ -6361,19 +6314,19 @@
     </row>
     <row r="55" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>15</v>
@@ -6428,19 +6381,19 @@
     </row>
     <row r="56" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>15</v>
@@ -6495,19 +6448,19 @@
     </row>
     <row r="57" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>15</v>
@@ -6562,19 +6515,19 @@
     </row>
     <row r="58" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>15</v>
@@ -6629,19 +6582,19 @@
     </row>
     <row r="59" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>11</v>
@@ -6687,16 +6640,14 @@
       </c>
       <c r="R59" s="131"/>
       <c r="S59" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T59" s="167" t="s">
-        <v>147</v>
-      </c>
-      <c r="U59" s="22">
-        <v>4</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="U59" s="22"/>
       <c r="V59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W59">
         <v>0</v>
@@ -6707,19 +6658,19 @@
     </row>
     <row r="60" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>11</v>
@@ -6765,14 +6716,12 @@
       </c>
       <c r="R60" s="131"/>
       <c r="S60" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T60" s="167" t="s">
-        <v>147</v>
-      </c>
-      <c r="U60" s="22">
-        <v>2</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="U60" s="22"/>
       <c r="V60" t="str">
         <f>IF(VLOOKUP($T60,'Havi béradatok'!$B:$E,2,FALSE)=E60,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -6788,19 +6737,19 @@
     </row>
     <row r="61" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>11</v>
@@ -6848,14 +6797,12 @@
         <v>44977</v>
       </c>
       <c r="S61" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T61" s="105">
         <v>8473390040</v>
       </c>
-      <c r="U61" s="22">
-        <v>3</v>
-      </c>
+      <c r="U61" s="22"/>
       <c r="V61" t="str">
         <f>IF(VLOOKUP(LEFT($T61,10),'Havi béradatok'!$B:$E,2,FALSE)=E61,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -6871,19 +6818,19 @@
     </row>
     <row r="62" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>15</v>
@@ -6931,7 +6878,7 @@
         <v>44999</v>
       </c>
       <c r="S62" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T62" s="105">
         <v>8473390040</v>
@@ -6940,19 +6887,19 @@
     </row>
     <row r="63" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>15</v>
@@ -7007,19 +6954,19 @@
     </row>
     <row r="64" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>15</v>
@@ -7074,19 +7021,19 @@
     </row>
     <row r="65" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>11</v>
@@ -7132,16 +7079,14 @@
       </c>
       <c r="R65" s="131"/>
       <c r="S65" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T65" s="167" t="s">
-        <v>142</v>
-      </c>
-      <c r="U65" s="22">
-        <v>4</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="U65" s="22"/>
       <c r="V65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W65">
         <v>0</v>
@@ -7152,19 +7097,19 @@
     </row>
     <row r="66" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>11</v>
@@ -7210,14 +7155,12 @@
       </c>
       <c r="R66" s="131"/>
       <c r="S66" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T66" s="167" t="s">
-        <v>142</v>
-      </c>
-      <c r="U66" s="22">
-        <v>2</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="U66" s="22"/>
       <c r="V66" t="str">
         <f>IF(VLOOKUP($T66,'Havi béradatok'!$B:$E,2,FALSE)=E66,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -7233,19 +7176,19 @@
     </row>
     <row r="67" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>11</v>
@@ -7293,14 +7236,12 @@
         <v>44987</v>
       </c>
       <c r="S67" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T67" s="105">
         <v>8395384386</v>
       </c>
-      <c r="U67" s="22">
-        <v>3</v>
-      </c>
+      <c r="U67" s="22"/>
       <c r="V67" t="str">
         <f>IF(VLOOKUP(LEFT($T67,10),'Havi béradatok'!$B:$E,2,FALSE)=E67,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -7316,19 +7257,19 @@
     </row>
     <row r="68" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
@@ -7376,7 +7317,7 @@
         <v>44987</v>
       </c>
       <c r="S68" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T68" s="105">
         <v>8395384386</v>
@@ -7385,19 +7326,19 @@
     </row>
     <row r="69" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>15</v>
@@ -7452,19 +7393,19 @@
     </row>
     <row r="70" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>15</v>
@@ -7519,19 +7460,19 @@
     </row>
     <row r="71" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>11</v>
@@ -7577,16 +7518,14 @@
       </c>
       <c r="R71" s="131"/>
       <c r="S71" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T71" s="167" t="s">
-        <v>143</v>
-      </c>
-      <c r="U71" s="22">
-        <v>4</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="U71" s="22"/>
       <c r="V71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W71" s="168">
         <v>1</v>
@@ -7597,19 +7536,19 @@
     </row>
     <row r="72" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>11</v>
@@ -7655,14 +7594,12 @@
       </c>
       <c r="R72" s="131"/>
       <c r="S72" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T72" s="167" t="s">
-        <v>143</v>
-      </c>
-      <c r="U72" s="22">
-        <v>2</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="U72" s="22"/>
       <c r="V72" t="str">
         <f>IF(VLOOKUP($T72,'Havi béradatok'!$B:$E,2,FALSE)=E72,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -7678,19 +7615,19 @@
     </row>
     <row r="73" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>11</v>
@@ -7736,14 +7673,12 @@
       </c>
       <c r="R73" s="131"/>
       <c r="S73" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T73" s="105">
         <v>8382142222</v>
       </c>
-      <c r="U73" s="22">
-        <v>3</v>
-      </c>
+      <c r="U73" s="22"/>
       <c r="V73" t="str">
         <f>IF(VLOOKUP(LEFT($T73,10),'Havi béradatok'!$B:$E,2,FALSE)=E73,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -7759,19 +7694,19 @@
     </row>
     <row r="74" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>15</v>
@@ -7817,7 +7752,7 @@
       </c>
       <c r="R74" s="131"/>
       <c r="S74" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T74" s="105">
         <v>8382142222</v>
@@ -7826,19 +7761,19 @@
     </row>
     <row r="75" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>15</v>
@@ -7893,19 +7828,19 @@
     </row>
     <row r="76" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
@@ -7960,19 +7895,19 @@
     </row>
     <row r="77" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>11</v>
@@ -8018,16 +7953,14 @@
       </c>
       <c r="R77" s="131"/>
       <c r="S77" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T77" s="167" t="s">
+        <v>148</v>
+      </c>
+      <c r="U77" s="22"/>
+      <c r="V77" t="s">
         <v>149</v>
-      </c>
-      <c r="U77" s="22">
-        <v>4</v>
-      </c>
-      <c r="V77" t="s">
-        <v>150</v>
       </c>
       <c r="W77">
         <v>0</v>
@@ -8038,19 +7971,19 @@
     </row>
     <row r="78" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>11</v>
@@ -8096,14 +8029,12 @@
       </c>
       <c r="R78" s="131"/>
       <c r="S78" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T78" s="167" t="s">
-        <v>149</v>
-      </c>
-      <c r="U78" s="22">
-        <v>2</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="U78" s="22"/>
       <c r="V78" t="str">
         <f>IF(VLOOKUP($T78,'Havi béradatok'!$B:$E,2,FALSE)=E78,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -8119,19 +8050,19 @@
     </row>
     <row r="79" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>11</v>
@@ -8177,14 +8108,12 @@
       </c>
       <c r="R79" s="131"/>
       <c r="S79" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T79" s="105">
         <v>8451923488</v>
       </c>
-      <c r="U79" s="22">
-        <v>3</v>
-      </c>
+      <c r="U79" s="22"/>
       <c r="V79" t="str">
         <f>IF(VLOOKUP(LEFT($T79,10),'Havi béradatok'!$B:$E,2,FALSE)=E79,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -8200,19 +8129,19 @@
     </row>
     <row r="80" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
@@ -8258,7 +8187,7 @@
       </c>
       <c r="R80" s="131"/>
       <c r="S80" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T80" s="105">
         <v>8451923488</v>
@@ -8270,19 +8199,19 @@
     </row>
     <row r="81" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
@@ -8340,19 +8269,19 @@
     </row>
     <row r="82" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>15</v>
@@ -8410,19 +8339,19 @@
     </row>
     <row r="83" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>11</v>
@@ -8468,16 +8397,14 @@
       </c>
       <c r="R83" s="131"/>
       <c r="S83" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T83" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="U83" s="22">
-        <v>4</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="U83" s="22"/>
       <c r="V83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W83">
         <v>0</v>
@@ -8488,19 +8415,19 @@
     </row>
     <row r="84" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>11</v>
@@ -8546,14 +8473,12 @@
       </c>
       <c r="R84" s="131"/>
       <c r="S84" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T84" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="U84" s="22">
-        <v>2</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="U84" s="22"/>
       <c r="V84" t="str">
         <f>IF(VLOOKUP($T84,'Havi béradatok'!$B:$E,2,FALSE)=E84,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -8569,19 +8494,19 @@
     </row>
     <row r="85" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>11</v>
@@ -8629,14 +8554,12 @@
         <v>44986</v>
       </c>
       <c r="S85" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T85" s="105">
         <v>8414381804</v>
       </c>
-      <c r="U85" s="22">
-        <v>3</v>
-      </c>
+      <c r="U85" s="22"/>
       <c r="V85" t="str">
         <f>IF(VLOOKUP(LEFT($T85,10),'Havi béradatok'!$B:$E,2,FALSE)=E85,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -8652,19 +8575,19 @@
     </row>
     <row r="86" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>15</v>
@@ -8712,7 +8635,7 @@
         <v>44986</v>
       </c>
       <c r="S86" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T86" s="105">
         <v>8414381804</v>
@@ -8721,19 +8644,19 @@
     </row>
     <row r="87" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
@@ -8788,19 +8711,19 @@
     </row>
     <row r="88" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
@@ -8855,19 +8778,19 @@
     </row>
     <row r="89" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>11</v>
@@ -8913,16 +8836,14 @@
       </c>
       <c r="R89" s="131"/>
       <c r="S89" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T89" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="U89" s="22">
-        <v>4</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="U89" s="22"/>
       <c r="V89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W89">
         <v>0</v>
@@ -8933,19 +8854,19 @@
     </row>
     <row r="90" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>11</v>
@@ -8991,14 +8912,12 @@
       </c>
       <c r="R90" s="131"/>
       <c r="S90" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T90" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="U90" s="22">
-        <v>2</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="U90" s="22"/>
       <c r="V90" t="str">
         <f>IF(VLOOKUP($T90,'Havi béradatok'!$B:$E,2,FALSE)=E90,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -9014,19 +8933,19 @@
     </row>
     <row r="91" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>11</v>
@@ -9074,14 +8993,12 @@
         <v>44986</v>
       </c>
       <c r="S91" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T91" s="105">
         <v>8414381804</v>
       </c>
-      <c r="U91" s="22">
-        <v>3</v>
-      </c>
+      <c r="U91" s="22"/>
       <c r="V91" t="str">
         <f>IF(VLOOKUP(LEFT($T91,10),'Havi béradatok'!$B:$E,2,FALSE)=E91,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -9097,19 +9014,19 @@
     </row>
     <row r="92" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>15</v>
@@ -9157,7 +9074,7 @@
         <v>44986</v>
       </c>
       <c r="S92" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T92" s="105">
         <v>8414381804</v>
@@ -9166,19 +9083,19 @@
     </row>
     <row r="93" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>15</v>
@@ -9233,19 +9150,19 @@
     </row>
     <row r="94" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>15</v>
@@ -9777,7 +9694,7 @@
     </row>
     <row r="111" spans="1:21" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F111" s="24" t="s">
         <v>11</v>
@@ -9792,7 +9709,7 @@
     </row>
     <row r="112" spans="1:21" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B112" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F112" s="24" t="s">
         <v>15</v>
@@ -9807,7 +9724,7 @@
     </row>
     <row r="113" spans="2:21" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B113" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K113" s="29"/>
       <c r="L113" s="32"/>
@@ -9819,7 +9736,7 @@
     </row>
     <row r="114" spans="2:21" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B114" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K114" s="29"/>
       <c r="L114" s="32"/>
@@ -10224,7 +10141,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="22"/>
@@ -10234,7 +10151,7 @@
     </row>
     <row r="2" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="22"/>
@@ -10244,7 +10161,7 @@
     </row>
     <row r="3" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="22"/>
@@ -10252,7 +10169,7 @@
     </row>
     <row r="4" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="22"/>
@@ -10275,7 +10192,7 @@
     </row>
     <row r="8" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10298,7 +10215,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="55" t="s">
         <v>14</v>
@@ -10310,16 +10227,16 @@
     <row r="10" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>130</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>131</v>
       </c>
       <c r="F10" s="44">
         <v>279400</v>
@@ -10784,7 +10701,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -10792,19 +10709,19 @@
         <v>22</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="E3" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="124" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="97">
         <f>SUMIFS(Bérköltség!$L$6:$L$108,Bérköltség!$F$6:$F$108,"Tény")+SUMIFS(Bérköltség!$M$6:$M$108,Bérköltség!$F$6:$F$108,"Tény")+SUMIFS(Dologi_Felhalm.!$F$10:$F$52,Dologi_Felhalm.!$H$10:$H$52,"Tény")</f>
@@ -10813,7 +10730,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="69">
         <v>19825</v>
@@ -10831,7 +10748,7 @@
         <v>14508.619753086419</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I4" s="97">
         <f>SUMIFS(Bérköltség!$L$6:$L$108,Bérköltség!$F$6:$F$108,"Köt. váll.")+SUMIFS(Bérköltség!$M$6:$M$108,Bérköltség!$F$6:$F$108,"Köt. váll.")+SUMIFS(Dologi_Felhalm.!$F$10:$F$52,Dologi_Felhalm.!$H$10:$H$52,"Köt. váll.")</f>
@@ -10840,7 +10757,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="69">
         <v>26540</v>
@@ -10860,7 +10777,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="69">
         <v>30790</v>
@@ -10880,7 +10797,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="69">
         <v>22185</v>
@@ -10928,7 +10845,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="145" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="73">
         <f>B9*B14</f>
@@ -10940,7 +10857,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" t="s">
@@ -10949,7 +10866,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="64">
         <v>44911</v>
@@ -10957,16 +10874,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>405</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -10979,7 +10896,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="121">
         <f>Bérköltség!L109+Bérköltség!M109+Dologi_Felhalm.!F53</f>
@@ -10988,7 +10905,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="118">
         <f>Bérköltség!N109+Dologi_Felhalm.!G53</f>
@@ -11000,7 +10917,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="120">
         <f>B9-B20</f>
@@ -11025,137 +10942,137 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="161" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="161" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="161" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="161" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="161" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="161" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="161" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="161" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="161" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="161" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="161" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="161" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="161" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -11179,30 +11096,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="155" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="C1" s="155" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="155" t="s">
-        <v>88</v>
-      </c>
       <c r="D1" s="155" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="155" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" s="155" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="169" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="156" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="157" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="158">
         <v>736829</v>
@@ -11213,13 +11130,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="156" t="s">
-        <v>134</v>
-      </c>
       <c r="C3" s="157" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="158">
         <v>877694</v>
@@ -11232,7 +11149,7 @@
       <c r="A4" s="160"/>
       <c r="B4" s="159"/>
       <c r="C4" s="157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="158"/>
       <c r="E4" s="158">
@@ -11241,13 +11158,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="156" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="156" t="s">
-        <v>136</v>
-      </c>
       <c r="C5" s="157" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="158">
         <v>1337167</v>
@@ -11258,13 +11175,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="156" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="156" t="s">
-        <v>138</v>
-      </c>
       <c r="C6" s="157" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="158">
         <v>1921739</v>
@@ -11275,13 +11192,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="156" t="s">
-        <v>140</v>
-      </c>
       <c r="C7" s="157" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="158">
         <v>746244</v>
@@ -11292,13 +11209,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="156" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="156" t="s">
-        <v>142</v>
-      </c>
       <c r="C8" s="157" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="158">
         <v>1054243</v>
@@ -11309,13 +11226,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="169" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="157" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="158">
         <v>1157639</v>
@@ -11326,13 +11243,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="169" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="156" t="s">
-        <v>145</v>
-      </c>
       <c r="C10" s="157" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="158">
         <v>746700</v>
@@ -11343,13 +11260,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="169" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="157" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="158">
         <v>558643</v>
@@ -11360,13 +11277,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="169" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="156" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="157" t="s">
         <v>125</v>
-      </c>
-      <c r="B12" s="156" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="157" t="s">
-        <v>126</v>
       </c>
       <c r="D12" s="158">
         <v>578544</v>
@@ -11377,13 +11294,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="169" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="156" t="s">
-        <v>149</v>
-      </c>
       <c r="C13" s="157" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="158">
         <v>607144</v>
